--- a/data 1.xlsx
+++ b/data 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bharbhatia\Desktop\New folder\test-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF4AC0D-0906-4C3E-90A5-191D190FEA9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89080793-5412-47FC-9139-71F77108EA08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>New Folder</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>hello bharat</t>
+  </si>
+  <si>
+    <t>try this</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,6 +398,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
